--- a/CUCMメンテナンスシステム開発/30_設計/02_詳細設計/11_DB設計(ER図、エンティティ一覧、CRUD図)/DDL/CUCMメンテナンスシステム_テーブル定義.xlsx/CUCMメンテナンスシステム_テーブル定義書.xlsx
+++ b/CUCMメンテナンスシステム開発/30_設計/02_詳細設計/11_DB設計(ER図、エンティティ一覧、CRUD図)/DDL/CUCMメンテナンスシステム_テーブル定義.xlsx/CUCMメンテナンスシステム_テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2020japan\20230704\CUCMメンテナンスシステム開発\30_設計\02_詳細設計\11_DB設計(ER図、エンティティ一覧、CRUD図)\DDL\CUCMメンテナンスシステム_テーブル定義.xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BAD421-9198-4A76-99FC-02A433B2D152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC2CCC5-DF97-480B-B1B6-EE4503341932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="28" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TMP_AD情報" sheetId="2" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2657" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2658" uniqueCount="642">
   <si>
     <t>局面</t>
   </si>
@@ -2453,8 +2453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{411E3F02-E184-4186-A171-525D3CB1FB73}">
   <dimension ref="A1:AF21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3077,9 +3077,13 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="6"/>
-      <c r="R15" s="5"/>
+      <c r="R15" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="S15" s="5"/>
-      <c r="T15" s="13"/>
+      <c r="T15" s="13">
+        <v>512</v>
+      </c>
       <c r="U15" s="13"/>
       <c r="V15" s="13"/>
       <c r="W15" s="4"/>
@@ -7141,7 +7145,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:32" ht="409.5">
       <c r="A28">
         <v>20</v>
       </c>
@@ -21585,7 +21589,7 @@
       <c r="AE15" s="5"/>
       <c r="AF15" s="6"/>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" ht="409.5">
       <c r="A16" s="13">
         <v>8</v>
       </c>
@@ -24586,8 +24590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52807FD9-B72D-4920-A945-963E2F91A8F3}">
   <dimension ref="A1:AF23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
